--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_114.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_114.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:06.600000', '0:00:19.060000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:06.260000', '0:00:17.160000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'A'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(43.926916, 50.765192), (28.450816, 36.229501)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(61.68, 67.26), (17.34, 24.4)]</t>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5588235294117647</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(4.511043, 10.664331)]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(71.4, 74.7)]</t>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:50.730362', '0:00:54.666145')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(88.86, 97.74)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(109.44, 123.14)]</t>
+          <t>[('0:00:01.420000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:40.080000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(27.46, 36.02), (81.1, 87.58)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(97.76, 109.38), (43.68, 45.8)]</t>
+          <t>[('0:00:38.120000', '0:00:52.640000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:07.140000', '0:00:30.180000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(105.4, 123.26)]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(11.06, 17.28)]</t>
+          <t>[('0:00:51.620000', '0:01:03.900000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:27.520000', '0:00:38.500000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09823284823284824</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min/5', 'Bb', 'Eb']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(43.926916, 52.959478)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(23.563446, 27.290249)]</t>
+          <t>[('0:00:13.660000', '0:00:17.900000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+          <t>[('0:00:36.640000', '0:00:38.520000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.98, 20.58)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[('0:01:36.060000', '0:01:47.420000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:34.860000', '0:00:42.080000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7), (32.06, 33.28), (8.2, 12.66)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (55.72, 64.64), (0.82, 6.76)]</t>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(105.4, 123.26)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.7, 15.02)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
